--- a/src/SuiteA.xlsx
+++ b/src/SuiteA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -168,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +288,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -334,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,20 +585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -612,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -620,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -635,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -652,7 +662,7 @@
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -686,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -700,7 +710,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -716,7 +726,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -730,7 +740,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -744,7 +754,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -760,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -776,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -790,7 +800,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -804,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -818,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
@@ -832,7 +842,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
@@ -853,14 +863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
@@ -868,12 +878,12 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -890,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -907,9 +917,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -924,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -941,12 +951,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -957,7 +967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -968,7 +978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -979,12 +989,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1012,12 +1022,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
